--- a/biology/Zoologie/Crapaud_de_mer/Crapaud_de_mer.xlsx
+++ b/biology/Zoologie/Crapaud_de_mer/Crapaud_de_mer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Crapaud de mer est un nom vernaculaire ambigu en français, pouvant désigner plusieurs espèces différentes de poissons de la famille des Cottidae.
@@ -512,17 +524,19 @@
           <t>Noms vernaculaires et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Liste alphabétique de noms vernaculaires attestés[1] en français. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Liste alphabétique de noms vernaculaires attestés en français. 
 Note : certaines espèces ont plusieurs noms et, les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide.
 Crapaud de mer nain - Myoxocephalus aenaeus
-Crapaud de mer à épines courtes ou Crapaud de mer à courtes épines - Myoxocephalus scorpius[2]
+Crapaud de mer à épines courtes ou Crapaud de mer à courtes épines - Myoxocephalus scorpius
 Crapaud de mer ou Cotte polaire - Cottunculus microps
-Crapaud de mer ou Crochet arctique - Artediellus uncinatus[3]
-Crapaud de mer ou Hémitriptère atlantique - Hemitripterus americanus[3]
-Crapaud de mer ou Lotte de mer - Lophius americanus[2]
-Crapaud de mer ou Tricorne arctique - Gymnocanthus tricuspis[3]</t>
+Crapaud de mer ou Crochet arctique - Artediellus uncinatus
+Crapaud de mer ou Hémitriptère atlantique - Hemitripterus americanus
+Crapaud de mer ou Lotte de mer - Lophius americanus
+Crapaud de mer ou Tricorne arctique - Gymnocanthus tricuspis</t>
         </is>
       </c>
     </row>
